--- a/data/evaluation/evaluation_North_Autumn_Pomelo.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Pomelo.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2845.809469941823</v>
+        <v>2844.149806076276</v>
       </c>
       <c r="C3" t="n">
-        <v>15150034.84381687</v>
+        <v>15143916.61152395</v>
       </c>
       <c r="D3" t="n">
-        <v>3892.30456719626</v>
+        <v>3891.518548269293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4592492464484403</v>
+        <v>0.4594676247397713</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2813.459312859382</v>
+        <v>2866.354124587475</v>
       </c>
       <c r="C4" t="n">
-        <v>14939605.85160846</v>
+        <v>15072803.99308564</v>
       </c>
       <c r="D4" t="n">
-        <v>3865.178631267701</v>
+        <v>3882.370924201555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4667600962437616</v>
+        <v>0.4620058500576647</v>
       </c>
     </row>
     <row r="5">
